--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -491,10 +491,16 @@
       <c r="C7" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F7" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +578,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0111212111200000</v>
+        <v>0111212111212000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -507,10 +507,16 @@
       <c r="C9" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F9" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F10" t="str">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -578,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0111212111212000</v>
+        <v>0111212111212340</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>207_碧海_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0111212111212340</v>
+        <v>0111212111212345</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -449,7 +449,7 @@
         <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0111212111212345</v>
+        <v>011212111212345</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -449,7 +449,7 @@
         <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011212111212345</v>
+        <v>0121212111212345</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -492,7 +492,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121212111212345</v>
+        <v>01212121112112345</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -500,7 +500,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F8" t="str">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01212121112112345</v>
+        <v>012121211121122345</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -508,7 +508,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F9" t="str">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F10" t="str">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012121211121122345</v>
+        <v>01212121112112233445</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -524,7 +524,7 @@
         <v>207_碧海_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01212121112112233445</v>
+        <v>012121211121122334455</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -448,40 +448,115 @@
       <c r="C2" t="str">
         <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E2" t="str">
+        <v>1</v>
+      </c>
       <c r="F2" t="str">
         <v>12</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>12.223214285714286</v>
+      </c>
+      <c r="L2">
+        <v>146.67857142857144</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E3" t="str">
+        <v>2</v>
+      </c>
       <c r="F3" t="str">
         <v>12</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>12.223214285714286</v>
+      </c>
+      <c r="L3">
+        <v>146.67857142857144</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
         <v>59_米莱伯妮_undefined_Gerbera L._10/20stems</v>
       </c>
+      <c r="E4" t="str">
+        <v>3</v>
+      </c>
       <c r="F4" t="str">
         <v>12</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>12.223214285714286</v>
+      </c>
+      <c r="L4">
+        <v>146.67857142857144</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
         <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="E5" t="str">
+        <v>4</v>
+      </c>
       <c r="F5" t="str">
         <v>11</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>32.223214285714285</v>
+      </c>
+      <c r="L5">
+        <v>354.4553571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
         <v>51_阿尔塔_undefined_Gerbera L._10/20stems</v>
       </c>
+      <c r="E6" t="str">
+        <v>5</v>
+      </c>
       <c r="F6" t="str">
         <v>12</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4.223214285714286</v>
+      </c>
+      <c r="L6">
+        <v>50.67857142857143</v>
       </c>
     </row>
     <row r="7">
@@ -491,40 +566,115 @@
       <c r="C7" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E7" t="str">
+        <v>6</v>
+      </c>
       <c r="F7" t="str">
         <v>11</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3.2232142857142856</v>
+      </c>
+      <c r="L7">
+        <v>35.45535714285714</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E8" t="str">
+        <v>7</v>
+      </c>
       <c r="F8" t="str">
         <v>22</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3.2232142857142856</v>
+      </c>
+      <c r="L8">
+        <v>70.91071428571428</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E9" t="str">
+        <v>8</v>
+      </c>
       <c r="F9" t="str">
         <v>33</v>
+      </c>
+      <c r="G9" t="str">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2.2232142857142856</v>
+      </c>
+      <c r="L9">
+        <v>73.36607142857143</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E10" t="str">
+        <v>9</v>
+      </c>
       <c r="F10" t="str">
         <v>44</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2</v>
+      </c>
+      <c r="H10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3.2232142857142856</v>
+      </c>
+      <c r="L10">
+        <v>141.82142857142856</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
         <v>207_碧海_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="E11" t="str">
+        <v>10</v>
+      </c>
       <c r="F11" t="str">
         <v>55</v>
+      </c>
+      <c r="G11" t="str">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3.2232142857142856</v>
+      </c>
+      <c r="L11">
+        <v>177.2767857142857</v>
       </c>
     </row>
   </sheetData>
@@ -569,25 +719,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="G2" t="str">
         <v>012121211121122334455</v>
+      </c>
+      <c r="H2" t="str">
+        <v>USD</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-15.xlsx
+++ b/DateBase/orders/name001_2024-10-15.xlsx
@@ -458,13 +458,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>12</v>
+        <v>12.11</v>
       </c>
       <c r="K2">
-        <v>12.223214285714286</v>
+        <v>12.333214285714286</v>
       </c>
       <c r="L2">
-        <v>146.67857142857144</v>
+        <v>147.99857142857144</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>12</v>
+        <v>12.21</v>
       </c>
       <c r="K3">
-        <v>12.223214285714286</v>
+        <v>12.433214285714287</v>
       </c>
       <c r="L3">
-        <v>146.67857142857144</v>
+        <v>149.19857142857146</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <v>12</v>
+        <v>12.32</v>
       </c>
       <c r="K4">
-        <v>12.223214285714286</v>
+        <v>12.543214285714287</v>
       </c>
       <c r="L4">
-        <v>146.67857142857144</v>
+        <v>150.51857142857145</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>2</v>
       </c>
       <c r="H5" t="str">
-        <v>32</v>
+        <v>32.32</v>
       </c>
       <c r="K5">
-        <v>32.223214285714285</v>
+        <v>32.543214285714285</v>
       </c>
       <c r="L5">
-        <v>354.4553571428571</v>
+        <v>357.97535714285715</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +550,13 @@
         <v>3</v>
       </c>
       <c r="H6" t="str">
-        <v>4</v>
+        <v>4.32</v>
       </c>
       <c r="K6">
-        <v>4.223214285714286</v>
+        <v>4.543214285714286</v>
       </c>
       <c r="L6">
-        <v>50.67857142857143</v>
+        <v>54.518571428571434</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>2</v>
       </c>
       <c r="H7" t="str">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="K7">
-        <v>3.2232142857142856</v>
+        <v>3.4332142857142856</v>
       </c>
       <c r="L7">
-        <v>35.45535714285714</v>
+        <v>37.76535714285714</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>2</v>
       </c>
       <c r="H8" t="str">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="K8">
-        <v>3.2232142857142856</v>
+        <v>3.4332142857142856</v>
       </c>
       <c r="L8">
-        <v>70.91071428571428</v>
+        <v>75.53071428571428</v>
       </c>
     </row>
     <row r="9">
@@ -622,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="str">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="K9">
-        <v>2.2232142857142856</v>
+        <v>2.5432142857142854</v>
       </c>
       <c r="L9">
-        <v>73.36607142857143</v>
+        <v>83.92607142857142</v>
       </c>
     </row>
     <row r="10">
@@ -645,13 +645,13 @@
         <v>2</v>
       </c>
       <c r="H10" t="str">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="K10">
-        <v>3.2232142857142856</v>
+        <v>3.5332142857142856</v>
       </c>
       <c r="L10">
-        <v>141.82142857142856</v>
+        <v>155.46142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="str">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="K11">
-        <v>3.2232142857142856</v>
+        <v>3.4332142857142856</v>
       </c>
       <c r="L11">
-        <v>177.2767857142857</v>
+        <v>188.8267857142857</v>
       </c>
     </row>
   </sheetData>
